--- a/biology/Histoire de la zoologie et de la botanique/Nathanael_Matthaeus_von_Wolf/Nathanael_Matthaeus_von_Wolf.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nathanael_Matthaeus_von_Wolf/Nathanael_Matthaeus_von_Wolf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathanael Matthaeus von Wolf est un médecin et un naturaliste allemand, né le 24 janvier 1724 à Chojnice, dans l'ouest de la Prusse royale et mort le 15 décembre 1784 à Dantzig.
 Il obtient son titre de docteur en médecine à Erfurt en 1748. Il devient le médecin personne du prince-évêque de Poznan avant d’ouvrir un cabinet privé en 1769 à Tczew puis à Danzig en 1772. Il est correspondant de la Royal Society.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">J.C. Poggendorff (1863). Biographisch-Literarisches Handwörterbuch zur geschichte der exacten wissenschaften. Verlag von Johann Ambrosius Barth. (Leipzig).
 </t>
